--- a/FDCSM/management/excel_templates/initial_admins.xlsx
+++ b/FDCSM/management/excel_templates/initial_admins.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\zhangwn2\source\2025FDCS\FDCSM\management\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ZhangWeinian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1827B97-C9F5-44D8-88D1-D9F37B8CF095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0C31A8-8248-462C-B0C3-DF3BEDAA786B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="4180" windowWidth="25420" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6230" yWindow="5480" windowWidth="25420" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,11 +51,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>admin_name1</t>
+    <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>admin_pd1</t>
+    <t>admin_password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +599,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
